--- a/Plant_Database.xlsx
+++ b/Plant_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Daniels Stuff\Coding Stuff\Plant recommendation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Senior_Project_2020-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB1A62-1F35-4357-9F74-A31A020DF6C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000CE2C1-2483-4EBA-B4C0-A9E5E5391E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30465" yWindow="1950" windowWidth="23760" windowHeight="11385" xr2:uid="{F545B4AF-A19C-4CC1-A591-39580486CA97}"/>
+    <workbookView xWindow="1860" yWindow="2295" windowWidth="25620" windowHeight="11385" xr2:uid="{F545B4AF-A19C-4CC1-A591-39580486CA97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Plant</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Romaine</t>
+  </si>
+  <si>
+    <t>Beetroot</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B84616-6948-41AB-B764-38D5961C9CDE}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +741,17 @@
         <v>80</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
